--- a/public/excel/AAA/AAA/Codigo456NombreSeparadoPorMayusculasSinEspacios.xlsx
+++ b/public/excel/AAA/AAA/Codigo456NombreSeparadoPorMayusculasSinEspacios.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Codigo456" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Parámetros" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Coordenadas" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Participantes" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
